--- a/q1_optimizer.xlsx
+++ b/q1_optimizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/bc622_ic_ac_uk/Documents/LCS/LSCA - Group project/LSCA---Group-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11218" documentId="8_{24CAD428-233A-4A65-B672-80E7D2A08464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AC69B7-F1F8-4008-AAB3-A5E0A71ADBD8}"/>
+  <xr:revisionPtr revIDLastSave="11219" documentId="8_{24CAD428-233A-4A65-B672-80E7D2A08464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6D5B43-590C-43B1-AC07-68C26FDECADA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{6501A6C4-6A1F-4F98-98F9-B6DE0062C2F6}"/>
+    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{6501A6C4-6A1F-4F98-98F9-B6DE0062C2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="x_1">Sheet1!$B$3</definedName>
     <definedName name="x_3">Sheet1!$D$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -625,7 +625,7 @@
   <dimension ref="A3:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K4"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,6 +1408,10 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="Y21">
+        <f ca="1">SUM(Y11:Y20)</f>
+        <v>9999.9999999999982</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
